--- a/web/static/documents/fichier_exemple_staff.xlsx
+++ b/web/static/documents/fichier_exemple_staff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenfrancesroot/Develop/ma-cantine/web/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01FE75C-B7A2-C641-9873-3951AE281A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1365CCB-B9D3-6D48-8497-4598D13AAB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{DD7BC120-3D81-9C42-8F8F-1CCFC90231DA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>SIRET</t>
   </si>
@@ -70,31 +70,55 @@
     <t>Gestionnaires notifiés</t>
   </si>
   <si>
-    <t>Annee du diag</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>BIo</t>
-  </si>
-  <si>
-    <t>Durable</t>
-  </si>
-  <si>
-    <t>Rouge</t>
-  </si>
-  <si>
-    <t>AOC</t>
-  </si>
-  <si>
-    <t>HVE</t>
-  </si>
-  <si>
     <t>Gestionnaires pas notifiés</t>
   </si>
   <si>
     <t>Identifiant import</t>
+  </si>
+  <si>
+    <t>Année du diagnostic</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>SIQO</t>
+  </si>
+  <si>
+    <t>Environnement</t>
+  </si>
+  <si>
+    <t>Autre EGAlim</t>
+  </si>
+  <si>
+    <t>Viandes vollailes total</t>
+  </si>
+  <si>
+    <t>Viandes vollailles EGAlim</t>
+  </si>
+  <si>
+    <t>Viandes vollailles provenance France</t>
+  </si>
+  <si>
+    <t>Produits aquatiques total</t>
+  </si>
+  <si>
+    <t>Produits aquatiques EGAlim</t>
+  </si>
+  <si>
+    <t>Statut de publication</t>
+  </si>
+  <si>
+    <t>Staff canteen</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>Automated test</t>
   </si>
 </sst>
 </file>
@@ -111,9 +135,10 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -454,27 +479,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DD7F81-ED4D-5D48-AB7D-1B578EDE2A99}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="7.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,31 +549,99 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>73282932000074</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>54460</v>
+      </c>
+      <c r="F2">
+        <v>700</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>2019</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>500</v>
+      </c>
+      <c r="O2">
+        <v>100.1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/web/static/documents/fichier_exemple_staff.xlsx
+++ b/web/static/documents/fichier_exemple_staff.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="fichier_exemple_staff" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">SIRET</t>
   </si>
@@ -34,13 +34,13 @@
     <t xml:space="preserve">Code postal</t>
   </si>
   <si>
-    <t xml:space="preserve">SIRET central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nb de repas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nb de repas par an</t>
+    <t xml:space="preserve">SIRET cuisine centrale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repas par jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repas par an</t>
   </si>
   <si>
     <t xml:space="preserve">Secteurs</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Secteur économique</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestionnaires notifiés</t>
+    <t xml:space="preserve">Gestionnaires addtionnels notifiés</t>
   </si>
   <si>
     <t xml:space="preserve">Année du diagnostic</t>
@@ -91,22 +91,13 @@
     <t xml:space="preserve">Produits aquatiques EGAlim</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestionnaires pas notifiés</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identifiant import</t>
   </si>
   <si>
     <t xml:space="preserve">Statut de publication</t>
   </si>
   <si>
-    <t xml:space="preserve">Staff canteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated test</t>
+    <t xml:space="preserve">Statut de télédéclaration</t>
   </si>
 </sst>
 </file>
@@ -116,13 +107,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,14 +127,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,12 +171,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,184 +193,129 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>73282932000074</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>54460</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>14000</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>2019</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/web/static/documents/fichier_exemple_staff.xlsx
+++ b/web/static/documents/fichier_exemple_staff.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="fichier_exemple_staff" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="fichier_exemple_staff" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,82 +22,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t xml:space="preserve">SIRET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de la cantine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code postal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIRET cuisine centrale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repas par jour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repas par an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secteurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode de production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode de gestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secteur économique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestionnaires addtionnels notifiés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Année du diagnostic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIQO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre EGAlim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viandes vollailes total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viandes vollailles EGAlim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viandes vollailles provenance France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produits aquatiques total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produits aquatiques EGAlim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statut de publication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statut de télédéclaration</t>
+    <t xml:space="preserve">siret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_insee_commune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_postal_commune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siret_livreur_repas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre_repas_jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre_repas_an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_gestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modèle_économique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestionnaires_additionnels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">année_bilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_totale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_siqo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_environnemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_autres_egalim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_viandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_viandes_egalim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_viandes_france</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_poissons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_poissons_egalim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_gestionnaires_additionnels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_source_donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_statut_teledeclaration</t>
   </si>
 </sst>
 </file>
@@ -112,6 +112,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -171,8 +172,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,124 +193,230 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1:Z1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="31.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="21.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
